--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.3255731632117</v>
+        <v>21.30703333333333</v>
       </c>
       <c r="H2">
-        <v>19.3255731632117</v>
+        <v>63.9211</v>
       </c>
       <c r="I2">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="J2">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.800574169655331</v>
+        <v>9.971009</v>
       </c>
       <c r="N2">
-        <v>9.800574169655331</v>
+        <v>29.913027</v>
       </c>
       <c r="O2">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="P2">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="Q2">
-        <v>189.4017131571568</v>
+        <v>212.4526211299667</v>
       </c>
       <c r="R2">
-        <v>189.4017131571568</v>
+        <v>1912.0735901697</v>
       </c>
       <c r="S2">
-        <v>0.0111787125005777</v>
+        <v>0.01194814563201185</v>
       </c>
       <c r="T2">
-        <v>0.0111787125005777</v>
+        <v>0.01194814563201185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.3255731632117</v>
+        <v>21.30703333333333</v>
       </c>
       <c r="H3">
-        <v>19.3255731632117</v>
+        <v>63.9211</v>
       </c>
       <c r="I3">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="J3">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0107918652933</v>
+        <v>10.04188433333333</v>
       </c>
       <c r="N3">
-        <v>10.0107918652933</v>
+        <v>30.125653</v>
       </c>
       <c r="O3">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="P3">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="Q3">
-        <v>193.4642906144102</v>
+        <v>213.9627642198111</v>
       </c>
       <c r="R3">
-        <v>193.4642906144102</v>
+        <v>1925.6648779783</v>
       </c>
       <c r="S3">
-        <v>0.01141849061371589</v>
+        <v>0.01203307473039939</v>
       </c>
       <c r="T3">
-        <v>0.01141849061371589</v>
+        <v>0.01203307473039939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.3255731632117</v>
+        <v>21.30703333333333</v>
       </c>
       <c r="H4">
-        <v>19.3255731632117</v>
+        <v>63.9211</v>
       </c>
       <c r="I4">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="J4">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.94833327409143</v>
+        <v>2.166912666666667</v>
       </c>
       <c r="N4">
-        <v>1.94833327409143</v>
+        <v>6.500738</v>
       </c>
       <c r="O4">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="P4">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="Q4">
-        <v>37.65265723477373</v>
+        <v>46.17048041908889</v>
       </c>
       <c r="R4">
-        <v>37.65265723477373</v>
+        <v>415.5343237718</v>
       </c>
       <c r="S4">
-        <v>0.002222304239461035</v>
+        <v>0.002596586575459363</v>
       </c>
       <c r="T4">
-        <v>0.002222304239461035</v>
+        <v>0.002596586575459363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.3255731632117</v>
+        <v>21.30703333333333</v>
       </c>
       <c r="H5">
-        <v>19.3255731632117</v>
+        <v>63.9211</v>
       </c>
       <c r="I5">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="J5">
-        <v>0.02956231073522373</v>
+        <v>0.03229214412626456</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.15809927214587</v>
+        <v>4.768749000000001</v>
       </c>
       <c r="N5">
-        <v>4.15809927214587</v>
+        <v>14.306247</v>
       </c>
       <c r="O5">
-        <v>0.1604341224861702</v>
+        <v>0.1769575029162046</v>
       </c>
       <c r="P5">
-        <v>0.1604341224861702</v>
+        <v>0.1769575029162046</v>
       </c>
       <c r="Q5">
-        <v>80.35765170375234</v>
+        <v>101.6078939013</v>
       </c>
       <c r="R5">
-        <v>80.35765170375234</v>
+        <v>914.4710451117001</v>
       </c>
       <c r="S5">
-        <v>0.004742803381469108</v>
+        <v>0.005714337188393962</v>
       </c>
       <c r="T5">
-        <v>0.004742803381469108</v>
+        <v>0.005714337188393962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>613.17500519985</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H6">
-        <v>613.17500519985</v>
+        <v>1844.601563</v>
       </c>
       <c r="I6">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="J6">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.800574169655331</v>
+        <v>9.971009</v>
       </c>
       <c r="N6">
-        <v>9.800574169655331</v>
+        <v>29.913027</v>
       </c>
       <c r="O6">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="P6">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="Q6">
-        <v>6009.467117439924</v>
+        <v>6130.846262029023</v>
       </c>
       <c r="R6">
-        <v>6009.467117439924</v>
+        <v>55177.61635826121</v>
       </c>
       <c r="S6">
-        <v>0.3546858371433791</v>
+        <v>0.3447933171951153</v>
       </c>
       <c r="T6">
-        <v>0.3546858371433791</v>
+        <v>0.3447933171951153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>613.17500519985</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H7">
-        <v>613.17500519985</v>
+        <v>1844.601563</v>
       </c>
       <c r="I7">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="J7">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.0107918652933</v>
+        <v>10.04188433333333</v>
       </c>
       <c r="N7">
-        <v>10.0107918652933</v>
+        <v>30.125653</v>
       </c>
       <c r="O7">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="P7">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="Q7">
-        <v>6138.367354055836</v>
+        <v>6174.425178910627</v>
       </c>
       <c r="R7">
-        <v>6138.367354055836</v>
+        <v>55569.82661019565</v>
       </c>
       <c r="S7">
-        <v>0.3622936811399647</v>
+        <v>0.3472441565522265</v>
       </c>
       <c r="T7">
-        <v>0.3622936811399647</v>
+        <v>0.3472441565522265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>613.17500519985</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H8">
-        <v>613.17500519985</v>
+        <v>1844.601563</v>
       </c>
       <c r="I8">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="J8">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.94833327409143</v>
+        <v>2.166912666666667</v>
       </c>
       <c r="N8">
-        <v>1.94833327409143</v>
+        <v>6.500738</v>
       </c>
       <c r="O8">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="P8">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="Q8">
-        <v>1194.669265472053</v>
+        <v>1332.363497272611</v>
       </c>
       <c r="R8">
-        <v>1194.669265472053</v>
+        <v>11991.2714754535</v>
       </c>
       <c r="S8">
-        <v>0.07051078910203507</v>
+        <v>0.07493093290880724</v>
       </c>
       <c r="T8">
-        <v>0.07051078910203507</v>
+        <v>0.07493093290880724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>613.17500519985</v>
+        <v>614.8671876666667</v>
       </c>
       <c r="H9">
-        <v>613.17500519985</v>
+        <v>1844.601563</v>
       </c>
       <c r="I9">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="J9">
-        <v>0.9379732174410659</v>
+        <v>0.9318697508010483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.15809927214587</v>
+        <v>4.768749000000001</v>
       </c>
       <c r="N9">
-        <v>4.15809927214587</v>
+        <v>14.306247</v>
       </c>
       <c r="O9">
-        <v>0.1604341224861702</v>
+        <v>0.1769575029162046</v>
       </c>
       <c r="P9">
-        <v>0.1604341224861702</v>
+        <v>0.1769575029162046</v>
       </c>
       <c r="Q9">
-        <v>2549.642542819537</v>
+        <v>2932.14728631823</v>
       </c>
       <c r="R9">
-        <v>2549.642542819537</v>
+        <v>26389.32557686407</v>
       </c>
       <c r="S9">
-        <v>0.1504829100556871</v>
+        <v>0.1649013441448994</v>
       </c>
       <c r="T9">
-        <v>0.1504829100556871</v>
+        <v>0.1649013441448994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>21.2227836671303</v>
+        <v>0.327557</v>
       </c>
       <c r="H10">
-        <v>21.2227836671303</v>
+        <v>0.982671</v>
       </c>
       <c r="I10">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890222</v>
       </c>
       <c r="J10">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890221</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.800574169655331</v>
+        <v>9.971009</v>
       </c>
       <c r="N10">
-        <v>9.800574169655331</v>
+        <v>29.913027</v>
       </c>
       <c r="O10">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="P10">
-        <v>0.3781406873332868</v>
+        <v>0.3700016197528959</v>
       </c>
       <c r="Q10">
-        <v>207.9954654162603</v>
+        <v>3.266073795013</v>
       </c>
       <c r="R10">
-        <v>207.9954654162603</v>
+        <v>29.394664155117</v>
       </c>
       <c r="S10">
-        <v>0.01227613768932991</v>
+        <v>0.0001836810727029841</v>
       </c>
       <c r="T10">
-        <v>0.01227613768932991</v>
+        <v>0.0001836810727029841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>21.2227836671303</v>
+        <v>0.327557</v>
       </c>
       <c r="H11">
-        <v>21.2227836671303</v>
+        <v>0.982671</v>
       </c>
       <c r="I11">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890222</v>
       </c>
       <c r="J11">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890221</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.0107918652933</v>
+        <v>10.04188433333333</v>
       </c>
       <c r="N11">
-        <v>10.0107918652933</v>
+        <v>30.125653</v>
       </c>
       <c r="O11">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="P11">
-        <v>0.3862516268090865</v>
+        <v>0.3726316432674529</v>
       </c>
       <c r="Q11">
-        <v>212.4568700937875</v>
+        <v>3.289289506573667</v>
       </c>
       <c r="R11">
-        <v>212.4568700937875</v>
+        <v>29.603605559163</v>
       </c>
       <c r="S11">
-        <v>0.01253945505540583</v>
+        <v>0.0001849867035829531</v>
       </c>
       <c r="T11">
-        <v>0.01253945505540583</v>
+        <v>0.000184986703582953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>21.2227836671303</v>
+        <v>0.327557</v>
       </c>
       <c r="H12">
-        <v>21.2227836671303</v>
+        <v>0.982671</v>
       </c>
       <c r="I12">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890222</v>
       </c>
       <c r="J12">
-        <v>0.03246447182371024</v>
+        <v>0.0004964331583890221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.94833327409143</v>
+        <v>2.166912666666667</v>
       </c>
       <c r="N12">
-        <v>1.94833327409143</v>
+        <v>6.500738</v>
       </c>
       <c r="O12">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="P12">
-        <v>0.07517356337145667</v>
+        <v>0.0804092340634467</v>
       </c>
       <c r="Q12">
-        <v>41.34905558751411</v>
+        <v>0.7097874123553333</v>
       </c>
       <c r="R12">
-        <v>41.34905558751411</v>
+        <v>6.388086711198</v>
       </c>
       <c r="S12">
-        <v>0.002440470029960551</v>
+        <v>3.991781002975899E-05</v>
       </c>
       <c r="T12">
-        <v>0.002440470029960551</v>
+        <v>3.991781002975898E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.327557</v>
+      </c>
+      <c r="H13">
+        <v>0.982671</v>
+      </c>
+      <c r="I13">
+        <v>0.0004964331583890222</v>
+      </c>
+      <c r="J13">
+        <v>0.0004964331583890221</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.768749000000001</v>
+      </c>
+      <c r="N13">
+        <v>14.306247</v>
+      </c>
+      <c r="O13">
+        <v>0.1769575029162046</v>
+      </c>
+      <c r="P13">
+        <v>0.1769575029162046</v>
+      </c>
+      <c r="Q13">
+        <v>1.562037116193</v>
+      </c>
+      <c r="R13">
+        <v>14.058334045737</v>
+      </c>
+      <c r="S13">
+        <v>8.784757207332606E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.784757207332605E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.31917566666667</v>
+      </c>
+      <c r="H14">
+        <v>69.957527</v>
+      </c>
+      <c r="I14">
+        <v>0.03534167191429817</v>
+      </c>
+      <c r="J14">
+        <v>0.03534167191429816</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.971009</v>
+      </c>
+      <c r="N14">
+        <v>29.913027</v>
+      </c>
+      <c r="O14">
+        <v>0.3700016197528959</v>
+      </c>
+      <c r="P14">
+        <v>0.3700016197528959</v>
+      </c>
+      <c r="Q14">
+        <v>232.5157104449143</v>
+      </c>
+      <c r="R14">
+        <v>2092.641394004229</v>
+      </c>
+      <c r="S14">
+        <v>0.01307647585306575</v>
+      </c>
+      <c r="T14">
+        <v>0.01307647585306575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23.31917566666667</v>
+      </c>
+      <c r="H15">
+        <v>69.957527</v>
+      </c>
+      <c r="I15">
+        <v>0.03534167191429817</v>
+      </c>
+      <c r="J15">
+        <v>0.03534167191429816</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.04188433333333</v>
+      </c>
+      <c r="N15">
+        <v>30.125653</v>
+      </c>
+      <c r="O15">
+        <v>0.3726316432674529</v>
+      </c>
+      <c r="P15">
+        <v>0.3726316432674529</v>
+      </c>
+      <c r="Q15">
+        <v>234.1684647933479</v>
+      </c>
+      <c r="R15">
+        <v>2107.516183140131</v>
+      </c>
+      <c r="S15">
+        <v>0.01316942528124412</v>
+      </c>
+      <c r="T15">
+        <v>0.01316942528124411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>21.2227836671303</v>
-      </c>
-      <c r="H13">
-        <v>21.2227836671303</v>
-      </c>
-      <c r="I13">
-        <v>0.03246447182371024</v>
-      </c>
-      <c r="J13">
-        <v>0.03246447182371024</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.15809927214587</v>
-      </c>
-      <c r="N13">
-        <v>4.15809927214587</v>
-      </c>
-      <c r="O13">
-        <v>0.1604341224861702</v>
-      </c>
-      <c r="P13">
-        <v>0.1604341224861702</v>
-      </c>
-      <c r="Q13">
-        <v>88.24644131920377</v>
-      </c>
-      <c r="R13">
-        <v>88.24644131920377</v>
-      </c>
-      <c r="S13">
-        <v>0.005208409049013949</v>
-      </c>
-      <c r="T13">
-        <v>0.005208409049013949</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>23.31917566666667</v>
+      </c>
+      <c r="H16">
+        <v>69.957527</v>
+      </c>
+      <c r="I16">
+        <v>0.03534167191429817</v>
+      </c>
+      <c r="J16">
+        <v>0.03534167191429816</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.166912666666667</v>
+      </c>
+      <c r="N16">
+        <v>6.500738</v>
+      </c>
+      <c r="O16">
+        <v>0.0804092340634467</v>
+      </c>
+      <c r="P16">
+        <v>0.0804092340634467</v>
+      </c>
+      <c r="Q16">
+        <v>50.53061712832511</v>
+      </c>
+      <c r="R16">
+        <v>454.775554154926</v>
+      </c>
+      <c r="S16">
+        <v>0.002841796769150342</v>
+      </c>
+      <c r="T16">
+        <v>0.002841796769150342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.31917566666667</v>
+      </c>
+      <c r="H17">
+        <v>69.957527</v>
+      </c>
+      <c r="I17">
+        <v>0.03534167191429817</v>
+      </c>
+      <c r="J17">
+        <v>0.03534167191429816</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.768749000000001</v>
+      </c>
+      <c r="N17">
+        <v>14.306247</v>
+      </c>
+      <c r="O17">
+        <v>0.1769575029162046</v>
+      </c>
+      <c r="P17">
+        <v>0.1769575029162046</v>
+      </c>
+      <c r="Q17">
+        <v>111.203295641241</v>
+      </c>
+      <c r="R17">
+        <v>1000.829660771169</v>
+      </c>
+      <c r="S17">
+        <v>0.006253974010837966</v>
+      </c>
+      <c r="T17">
+        <v>0.006253974010837964</v>
       </c>
     </row>
   </sheetData>
